--- a/database/relatorio/PE 90004-2024/JULIANO_DE_COSTA_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/JULIANO_DE_COSTA_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,799 +446,1241 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Fixador radiológico\, aplicação:para processamento automático\, aspecto físico:solução aquosa concentrado</t>
+          <t>Fixador radiológico\, aplicação:para processamento automático\, aspecto físico:solução aquosa concentrado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>UF: Galão 38,00 L</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 23.95</t>
+          <t>Marca:  LYSANDA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 239.5</t>
+          <t>Modelo:  LYSANDA</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 23,95</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 239,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 24 - GRAMPO USO ODONTOLÓGICO (246017)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 14, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 11.84</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 118.4</t>
+          <t>Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 14, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 25 - GRAMPO USO ODONTOLÓGICO (270034)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  DUFLEX/SSWHITE</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  DUFLEX/SSWHITE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 201, finalidade isolamento absoluto do dente.</t>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 11,84</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 118,40</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 11.92</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 119.2</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 25 - GRAMPO USO ODONTOLÓGICO (270034)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Item: 26 - GRAMPO USO ODONTOLÓGICO (246021)</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 201, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 202, finalidade isolamento absoluto do dente.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  DUFLEX/SSWHITE</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  DUFLEX/SSWHITE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>Quantidade: 10</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 11.93</t>
+          <t>Valor Unitário: R$ 11,92</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 119.3</t>
+          <t>Valor Total: R$ 119,20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 27 - GRAMPO USO ODONTOLÓGICO (247808)</t>
+          <t>Item: 26 - GRAMPO USO ODONTOLÓGICO (246021)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 205, finalidade isolamento absoluto do dente.</t>
+          <t>Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 202, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 11.9</t>
+          <t>Marca:  DUFLEX/SSWHITE</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 119.0</t>
+          <t>Modelo:  DUFLEX/SSWHITE</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Item: 28 - GRAMPO USO ODONTOLÓGICO (246024)</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 11,93</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 119,30</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 206, finalidade isolamento absoluto do dente.</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Item: 27 - GRAMPO USO ODONTOLÓGICO (247808)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 11.95</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 119.5</t>
+          <t>Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 205, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Item: 29 - GRAMPO USO ODONTOLÓGICO (247810)</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  DUFLEX/SSWHITE</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  DUFLEX/SSWHITE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 208, finalidade isolamento absoluto do dente.</t>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 11,90</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 119,00</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 12.0</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 120.0</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Item: 28 - GRAMPO USO ODONTOLÓGICO (246024)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Item: 30 - GRAMPO USO ODONTOLÓGICO (266931)</t>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 206, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 209, finalidade isolamento absoluto do dente.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  DUFLEX/SSWHITE</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  DUFLEX/SSWHITE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>Quantidade: 10</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 11.99</t>
+          <t>Valor Unitário: R$ 11,95</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 119.9</t>
+          <t>Valor Total: R$ 119,50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 32 - HEMOSTÁTICO ABSORVÍVEL (417242)</t>
+          <t>Item: 29 - GRAMPO USO ODONTOLÓGICO (247810)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Hemostático absorvível, material: esponja de gelatina liofilizada, esterilidade: estéril, características adicionais: em cubo, 1 cm – caixa com 10</t>
+          <t>Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 208, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 50.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 47.99</t>
+          <t>Marca:  DUFLEX/SSWHITE</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 2399.5</t>
+          <t>Modelo:  DUFLEX/SSWHITE</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Item: 37 - IODOFÓRMIO (419258)</t>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 12,00</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 120,00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Iodofórmio, aspecto físico: pó ou cristal lustroso amarelo, odor desagradável, fórmula química: chi3 (tri-iodometano), peso molecular:393,73 g/mol, grau de pureza: pureza mínima de 99%, número de referência química: cas 75-47-8</t>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Item: 30 - GRAMPO USO ODONTOLÓGICO (266931)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 4.0</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 26.36</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 105.44</t>
+          <t>Grampo uso odontológico, material aço inoxidável, tipo uso reutilizável, tamanho 209, finalidade isolamento absoluto do dente.</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Item: 41 - LÂMINA BISTURI (313571)</t>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  DUFLEX/SSWHITE</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  DUFLEX/SSWHITE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lâmina cirúrgica aço carbono, esterilizada por raio gama, numero 11.</t>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 11,99</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 119,90</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 6.0</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 30.38</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 182.28</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Item: 32 - HEMOSTÁTICO ABSORVÍVEL (417242)</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Item: 43 - LAMPARINA USO ODONTOLÓGICO (209756)</t>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Hemostático absorvível, material: esponja de gelatina liofilizada, esterilidade: estéril, características adicionais: em cubo, 1 cm – caixa com 10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lamparina uso odontológico, material aço inoxidável, tipo combustível álcool, características adicionais com tampa, tamanho pequeno</t>
+          <t>UF: Caixa 10,00 UN</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  MAQUIRA</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MAQUIRA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 4.0</t>
+          <t>Quantidade: 50</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 29.0</t>
+          <t>Valor Unitário: R$ 47,99</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 116.0</t>
+          <t>Valor Total: R$ 2.399,50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 55 - TIRA ABRASIVA - USO ODONTOLÓGICO (406285)</t>
+          <t>Item: 37 - IODOFÓRMIO (419258)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lixa odontológica, material aço, largura 4 mm, aplicação acabamento de amálgamas, tratamento superficial óxido de alumínio</t>
+          <t>Iodofórmio, aspecto físico: pó ou cristal lustroso amarelo, odor desagradável, fórmula química: chi3 (tri-iodometano), peso molecular:393,73 g/mol, grau de pureza: pureza mínima de 99%, número de referência química: cas 75-47-8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 50.0</t>
+          <t>UF: Quilograma</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 8.98</t>
+          <t>Marca:  MAQUIRA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 449.0</t>
+          <t>Modelo:  MAQUIRA</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Item: 59 - MATRIZ ODONTOLÓGICA (406145)</t>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 4</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 26,36</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 105,44</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Matriz aço p/ amálgama rolo c/ 500 mm (5 mm).</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Item: 41 - LÂMINA BISTURI (313571)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 50.0</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 1.03</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 51.5</t>
+          <t>Lâmina cirúrgica aço carbono, esterilizada por raio gama, numero 11.</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Item: 60 - MATRIZ ODONTOLÓGICA (406146)</t>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>UF: Caixa 50,00 UN</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  MEDIX</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MEDIX</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Matriz aço p/ amálgama rolo c/ 500 mm (7 mm).</t>
+          <t>Quantidade: 6</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 30,38</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 182,28</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 50.0</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 1.17</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 58.5</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Item: 43 - LAMPARINA USO ODONTOLÓGICO (209756)</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Item: 64 - MOLDEIRA ODONTOLÓGICA (427683)</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Lamparina uso odontológico, material aço inoxidável, tipo combustível álcool, características adicionais com tampa, tamanho pequeno</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Moldeira odontológica, material: plástico, tipo:p/ moldagem, modelo: dentados total, tamanho: no 1, aplicação: superior, adulto, características Adicionais: perfurada, tipo uso: autoclavável</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  PREVEN</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PREVEN</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>Quantidade: 4</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 9.8</t>
+          <t>Valor Unitário: R$ 29,00</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 196.0</t>
+          <t>Valor Total: R$ 116,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 80 - PAVIO - LAMPARINA / TOUCHEIRA (150958)</t>
+          <t>Item: 55 - TIRA ABRASIVA - USO ODONTOLÓGICO (406285)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pavio para lamparina a álcool.</t>
+          <t>Lixa odontológica, material aço, largura 4 mm, aplicação acabamento de amálgamas, tratamento superficial óxido de alumínio</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 35.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 3.0</t>
+          <t>Marca:  BIODINAMICA</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 105.0</t>
+          <t>Modelo:  BIODINAMICA</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Item: 92 - PINÇA ANATÔMICA (467745)</t>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 50</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 8,98</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 449,00</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pinca disseccao c/dente 14cm</t>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Item: 59 - MATRIZ ODONTOLÓGICA (406145)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 50.0</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 16.0</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 800.0</t>
+          <t>Matriz aço p/ amálgama rolo c/ 500 mm (5 mm).</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Item: 104 - ACESSÓRIOS - USO ODONTOLÓGICO (436847)</t>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  PREVEN</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PREVEN</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Placa de vidro 10 mm.</t>
+          <t>Quantidade: 50</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 1,03</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 51,50</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 13.33</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 133.3</t>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Item: 60 - MATRIZ ODONTOLÓGICA (406146)</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Item: 108 - PONTA P/ SERINGA MATERIAIS VISCOSOS (418158)</t>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Matriz aço p/ amálgama rolo c/ 500 mm (7 mm).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pontas descartáveis tipo centrix modelo anterior lv, embalagem com 20 unidades.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  PREVEN</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PREVEN</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>Quantidade: 50</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 72.0</t>
+          <t>Valor Unitário: R$ 1,17</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1440.0</t>
+          <t>Valor Total: R$ 58,50</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 117 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
+          <t>Item: 64 - MOLDEIRA ODONTOLÓGICA (427683)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Porta rolete de algodão, em inox, medindo 10 x 5,5 cm.</t>
+          <t>Moldeira odontológica, material: plástico, tipo:p/ moldagem, modelo: dentados total, tamanho: no 1, aplicação: superior, adulto, características Adicionais: perfurada, tipo uso: autoclavável</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 61.12</t>
+          <t>Marca:  MAQUIRA</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 122.24</t>
+          <t>Modelo:  MAQUIRA</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Item: 120 - POTE ODONTOLÓGICO (411436)</t>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 9,80</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 196,00</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pote odontológico, material: vidro, formato: cilíndrico, transmitância: transparente, características adicionais: 2 cavidades, tipo: dappen,tamanho: 3 x 3 cm</t>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Item: 80 - PAVIO - LAMPARINA / TOUCHEIRA (150958)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 15.0</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 6.78</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 101.7</t>
+          <t>Pavio para lamparina a álcool.</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Item: 133 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>UF: Pacote 12,00 UN</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  PREVEN</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PREVEN</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Resina acrílica termopolimerizável / cor rosa escuro / 450g / tipo vipe wave energia de microondas, com 2 anos de Validade.</t>
+          <t>Quantidade: 35</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 3,00</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 105,00</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 84.87</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 424.35</t>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Item: 92 - PINÇA ANATÔMICA (467745)</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Item: 134 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Pinca disseccao c/dente 14cm</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Resina acrílica termopolimerizável / cor rosa médio / 450g /tipo vipe wave / energia de microondas, com 10 anos de validade.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 5.0</t>
+          <t>Quantidade: 50</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 69.22</t>
+          <t>Valor Unitário: R$ 16,00</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 346.1</t>
+          <t>Valor Total: R$ 800,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 138 - RESINA COMPOSTA (407163)</t>
+          <t>Item: 104 - ACESSÓRIOS - USO ODONTOLÓGICO (436847)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Resina composta, tipo: fotopolimerizável, tamanho partículas: nanohíbrida, aspecto físico: escupível. Especificações técnicas: carga de silicato de zircônia esferoidal, sem bisfenol-A, tecnologia APS, para evitar alteração de cor com o passar do tempo. Embalagem com 04g. Referência: Vittra – FGM.</t>
+          <t>Placa de vidro 10 mm.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 100.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 91.82</t>
+          <t>Marca:  GOLGRAN</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 9182.0</t>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Item: 159 - TESOURA INSTRUMENTAL (471729)</t>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 13,33</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 133,30</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Tesoura instrumental, modelo 2: castroviejo, tipo ponta: ponta curva, comprimento total: cerca de 12 cm, material: titânio, esterilidade: esterilizável</t>
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Item: 108 - PONTA P/ SERINGA MATERIAIS VISCOSOS (418158)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 109.29</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 546.45</t>
+          <t>Pontas descartáveis tipo centrix modelo anterior lv, embalagem com 20 unidades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>UF: Embalagem 20,00 UN</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  MAQUIRA</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MAQUIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 72,00</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.440,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Item: 117 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Porta rolete de algodão, em inox, medindo 10 x 5,5 cm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 61,12</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 122,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Item: 120 - POTE ODONTOLÓGICO (411436)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Pote odontológico, material: vidro, formato: cilíndrico, transmitância: transparente, características adicionais: 2 cavidades, tipo: dappen,tamanho: 3 x 3 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  PREVEN</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PREVEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 15</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 6,78</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 101,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Item: 133 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Resina acrílica termopolimerizável / cor rosa escuro / 450g / tipo vipe wave energia de microondas, com 2 anos de Validade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>UF: Frasco 440,00 G</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  VIPE WAVE</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  VIPE WAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 84,87</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 424,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Item: 134 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Resina acrílica termopolimerizável / cor rosa médio / 450g /tipo vipe wave / energia de microondas, com 10 anos de validade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>UF: Frasco 440,00 G</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  VIPE WAVE</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  VIPE WAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 69,22</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 346,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Item: 138 - RESINA COMPOSTA (407163)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Resina composta, tipo: fotopolimerizável, tamanho partículas: nanohíbrida, aspecto físico: escupível. Especificações técnicas: carga de silicato de zircônia esferoidal, sem bisfenol-A, tecnologia APS, para evitar alteração de cor com o passar do tempo. Embalagem com 04g. Referência: Vittra – FGM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  FGM</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  VITRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 100</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 91,82</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 9.182,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Item: 159 - TESOURA INSTRUMENTAL (471729)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Tesoura instrumental, modelo 2: castroviejo, tipo ponta: ponta curva, comprimento total: cerca de 12 cm, material: titânio, esterilidade: esterilizável</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 109,29</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 546,45</t>
         </is>
       </c>
     </row>
@@ -1246,56 +1688,56 @@
   <mergeCells count="52">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A66:C66"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A89:C89"/>
     <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A97:C97"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A52:C52"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A93:C93"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A94:C94"/>
     <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A54:C54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/relatorio/PE 90004-2024/JULIANO_DE_COSTA_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/JULIANO_DE_COSTA_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 1 - FIXADOR RADIOLÓGICO (405631)</t>
+          <t>Item 1 - FIXADOR RADIOLÓGICO (405631)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 24 - GRAMPO USO ODONTOLÓGICO (246017)</t>
+          <t>Item 24 - GRAMPO USO ODONTOLÓGICO (246017)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 25 - GRAMPO USO ODONTOLÓGICO (270034)</t>
+          <t>Item 25 - GRAMPO USO ODONTOLÓGICO (270034)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 26 - GRAMPO USO ODONTOLÓGICO (246021)</t>
+          <t>Item 26 - GRAMPO USO ODONTOLÓGICO (246021)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 27 - GRAMPO USO ODONTOLÓGICO (247808)</t>
+          <t>Item 27 - GRAMPO USO ODONTOLÓGICO (247808)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 28 - GRAMPO USO ODONTOLÓGICO (246024)</t>
+          <t>Item 28 - GRAMPO USO ODONTOLÓGICO (246024)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 29 - GRAMPO USO ODONTOLÓGICO (247810)</t>
+          <t>Item 29 - GRAMPO USO ODONTOLÓGICO (247810)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 30 - GRAMPO USO ODONTOLÓGICO (266931)</t>
+          <t>Item 30 - GRAMPO USO ODONTOLÓGICO (266931)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 32 - HEMOSTÁTICO ABSORVÍVEL (417242)</t>
+          <t>Item 32 - HEMOSTÁTICO ABSORVÍVEL (417242)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 37 - IODOFÓRMIO (419258)</t>
+          <t>Item 37 - IODOFÓRMIO (419258)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 41 - LÂMINA BISTURI (313571)</t>
+          <t>Item 41 - LÂMINA BISTURI (313571)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 43 - LAMPARINA USO ODONTOLÓGICO (209756)</t>
+          <t>Item 43 - LAMPARINA USO ODONTOLÓGICO (209756)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 55 - TIRA ABRASIVA - USO ODONTOLÓGICO (406285)</t>
+          <t>Item 55 - TIRA ABRASIVA - USO ODONTOLÓGICO (406285)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Item: 59 - MATRIZ ODONTOLÓGICA (406145)</t>
+          <t>Item 59 - MATRIZ ODONTOLÓGICA (406145)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Item: 60 - MATRIZ ODONTOLÓGICA (406146)</t>
+          <t>Item 60 - MATRIZ ODONTOLÓGICA (406146)</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 64 - MOLDEIRA ODONTOLÓGICA (427683)</t>
+          <t>Item 64 - MOLDEIRA ODONTOLÓGICA (427683)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Item: 80 - PAVIO - LAMPARINA / TOUCHEIRA (150958)</t>
+          <t>Item 80 - PAVIO - LAMPARINA / TOUCHEIRA (150958)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Item: 92 - PINÇA ANATÔMICA (467745)</t>
+          <t>Item 92 - PINÇA ANATÔMICA (467745)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 104 - ACESSÓRIOS - USO ODONTOLÓGICO (436847)</t>
+          <t>Item 104 - ACESSÓRIOS - USO ODONTOLÓGICO (436847)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Item: 108 - PONTA P/ SERINGA MATERIAIS VISCOSOS (418158)</t>
+          <t>Item 108 - PONTA P/ SERINGA MATERIAIS VISCOSOS (418158)</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Item: 117 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
+          <t>Item 117 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Item: 120 - POTE ODONTOLÓGICO (411436)</t>
+          <t>Item 120 - POTE ODONTOLÓGICO (411436)</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Item: 133 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
+          <t>Item 133 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Item: 134 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
+          <t>Item 134 - RESINA ACRÍLICA USO ODONTOLÓGICO (390464)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Item: 138 - RESINA COMPOSTA (407163)</t>
+          <t>Item 138 - RESINA COMPOSTA (407163)</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Item: 159 - TESOURA INSTRUMENTAL (471729)</t>
+          <t>Item 159 - TESOURA INSTRUMENTAL (471729)</t>
         </is>
       </c>
     </row>
